--- a/downloaded_files/MDPS354_Lecture-35381.xlsx
+++ b/downloaded_files/MDPS354_Lecture-35381.xlsx
@@ -48,7 +48,7 @@
     <x:t>جيسى ارميا وديع جندي</x:t>
   </x:si>
   <x:si>
-    <x:t>Jessy Aemia Wadie</x:t>
+    <x:t>Jesse Jeremiah Wadih Jundi</x:t>
   </x:si>
   <x:si>
     <x:t>4250219</x:t>

--- a/downloaded_files/MDPS354_Lecture-35381.xlsx
+++ b/downloaded_files/MDPS354_Lecture-35381.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Alia Khaled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد محمود حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar mohamed Mahmoud hussien</x:t>
   </x:si>
   <x:si>
     <x:t>1200251</x:t>
@@ -191,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -491,7 +500,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T6"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -678,7 +687,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4152640394</x:v>
+        <x:v>45928.6029127662</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -710,7 +719,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.5172366898</x:v>
+        <x:v>45909.4152640394</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -727,6 +736,38 @@
       <x:c r="R6" s="2" t="s"/>
       <x:c r="S6" s="2" t="s"/>
       <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45909.5172366898</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS354_Lecture-35381.xlsx
+++ b/downloaded_files/MDPS354_Lecture-35381.xlsx
@@ -57,7 +57,7 @@
     <x:t>عاليه خالد محمد الشبراوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Alia Khaled</x:t>
+    <x:t>Aliyah Khaled Mohamed AlShobrawi</x:t>
   </x:si>
   <x:si>
     <x:t>1200211</x:t>

--- a/downloaded_files/MDPS354_Lecture-35381.xlsx
+++ b/downloaded_files/MDPS354_Lecture-35381.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Jesse Jeremiah Wadih Jundi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه خالد محمد الشبراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aliyah Khaled Mohamed AlShobrawi</x:t>
   </x:si>
   <x:si>
     <x:t>1200211</x:t>
@@ -200,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -500,7 +491,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T7"/>
+  <x:dimension ref="A1:T6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -655,7 +646,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45917.5207644676</x:v>
+        <x:v>45928.6029127662</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -687,7 +678,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.6029127662</x:v>
+        <x:v>45909.4152640394</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -719,7 +710,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4152640394</x:v>
+        <x:v>45909.5172366898</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -736,38 +727,6 @@
       <x:c r="R6" s="2" t="s"/>
       <x:c r="S6" s="2" t="s"/>
       <x:c r="T6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:20">
-      <x:c r="A7" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="3">
-        <x:v>45909.5172366898</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="2" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
-      <x:c r="J7" s="2" t="s"/>
-      <x:c r="K7" s="2" t="s"/>
-      <x:c r="L7" s="2" t="s"/>
-      <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="2" t="s"/>
-      <x:c r="P7" s="2" t="s"/>
-      <x:c r="Q7" s="2" t="s"/>
-      <x:c r="R7" s="2" t="s"/>
-      <x:c r="S7" s="2" t="s"/>
-      <x:c r="T7" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
